--- a/8/4/2/Empresas no financieras 2003 a 2021 - Mensual.xlsx
+++ b/8/4/2/Empresas no financieras 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
   <si>
     <t>Serie</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6054,7 +6057,7 @@
         <v>222</v>
       </c>
       <c r="B218">
-        <v>36659</v>
+        <v>36657</v>
       </c>
       <c r="C218">
         <v>159</v>
@@ -6063,13 +6066,13 @@
         <v>159</v>
       </c>
       <c r="E218">
-        <v>36500</v>
+        <v>36498</v>
       </c>
       <c r="F218">
         <v>35436</v>
       </c>
       <c r="G218">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6077,7 +6080,7 @@
         <v>223</v>
       </c>
       <c r="B219">
-        <v>35566</v>
+        <v>35564</v>
       </c>
       <c r="C219">
         <v>163</v>
@@ -6086,13 +6089,13 @@
         <v>163</v>
       </c>
       <c r="E219">
-        <v>35403</v>
+        <v>35402</v>
       </c>
       <c r="F219">
         <v>34338</v>
       </c>
       <c r="G219">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6100,7 +6103,7 @@
         <v>224</v>
       </c>
       <c r="B220">
-        <v>33757</v>
+        <v>33754</v>
       </c>
       <c r="C220">
         <v>280</v>
@@ -6109,13 +6112,13 @@
         <v>280</v>
       </c>
       <c r="E220">
-        <v>33476</v>
+        <v>33474</v>
       </c>
       <c r="F220">
         <v>32424</v>
       </c>
       <c r="G220">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6123,7 +6126,7 @@
         <v>225</v>
       </c>
       <c r="B221">
-        <v>35863</v>
+        <v>35862</v>
       </c>
       <c r="C221">
         <v>213</v>
@@ -6138,7 +6141,7 @@
         <v>34605</v>
       </c>
       <c r="G221">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6146,7 +6149,7 @@
         <v>226</v>
       </c>
       <c r="B222">
-        <v>37595</v>
+        <v>37594</v>
       </c>
       <c r="C222">
         <v>143</v>
@@ -6161,7 +6164,30 @@
         <v>36406</v>
       </c>
       <c r="G222">
-        <v>1045</v>
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223">
+        <v>37860</v>
+      </c>
+      <c r="C223">
+        <v>142</v>
+      </c>
+      <c r="D223">
+        <v>142</v>
+      </c>
+      <c r="E223">
+        <v>37718</v>
+      </c>
+      <c r="F223">
+        <v>36692</v>
+      </c>
+      <c r="G223">
+        <v>1026</v>
       </c>
     </row>
   </sheetData>

--- a/8/4/2/Empresas no financieras 2003 a 2021 - Mensual.xlsx
+++ b/8/4/2/Empresas no financieras 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="229">
   <si>
     <t>Serie</t>
   </si>
@@ -698,6 +698,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6190,6 +6193,29 @@
         <v>1026</v>
       </c>
     </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224">
+        <v>44869</v>
+      </c>
+      <c r="C224">
+        <v>49</v>
+      </c>
+      <c r="D224">
+        <v>49</v>
+      </c>
+      <c r="E224">
+        <v>44820</v>
+      </c>
+      <c r="F224">
+        <v>43797</v>
+      </c>
+      <c r="G224">
+        <v>1023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/2/Empresas no financieras 2003 a 2021 - Mensual.xlsx
+++ b/8/4/2/Empresas no financieras 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="230">
   <si>
     <t>Serie</t>
   </si>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G224"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6216,6 +6219,29 @@
         <v>1023</v>
       </c>
     </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225">
+        <v>45157</v>
+      </c>
+      <c r="C225">
+        <v>48</v>
+      </c>
+      <c r="D225">
+        <v>48</v>
+      </c>
+      <c r="E225">
+        <v>45110</v>
+      </c>
+      <c r="F225">
+        <v>44090</v>
+      </c>
+      <c r="G225">
+        <v>1020</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/2/Empresas no financieras 2003 a 2021 - Mensual.xlsx
+++ b/8/4/2/Empresas no financieras 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
   <si>
     <t>Serie</t>
   </si>
@@ -704,6 +704,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G225"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6242,6 +6245,29 @@
         <v>1020</v>
       </c>
     </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226">
+        <v>44254</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>44254</v>
+      </c>
+      <c r="F226">
+        <v>43243</v>
+      </c>
+      <c r="G226">
+        <v>1011</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
